--- a/downloads/salary_slip.xlsx
+++ b/downloads/salary_slip.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="636" windowWidth="19572" windowHeight="7380"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Salary sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Roles">[1]Lookups!$F$2:$F$6</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Date of Joining</t>
   </si>
@@ -97,9 +98,6 @@
     <t>In words</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Fixed Gross</t>
   </si>
   <si>
@@ -203,42 +201,6 @@
   </si>
   <si>
     <t>Earned Gross</t>
-  </si>
-  <si>
-    <t>FFI1005</t>
-  </si>
-  <si>
-    <t>VIGNESH R</t>
-  </si>
-  <si>
-    <t>BDE</t>
-  </si>
-  <si>
-    <t>Tirupur</t>
-  </si>
-  <si>
-    <t>PY/KRP/1707599/10129</t>
-  </si>
-  <si>
-    <t>Indusind Bank</t>
-  </si>
-  <si>
-    <t>056821575212</t>
-  </si>
-  <si>
-    <t>Sep-2018</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>Grofers india Pvt Ltd</t>
-  </si>
-  <si>
-    <t>INDB0000051</t>
-  </si>
-  <si>
-    <t>Twenty Thousand Three Hundred &amp; Forty Seven  Only</t>
   </si>
   <si>
     <t>Leave Taken</t>
@@ -352,7 +314,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,13 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,479 +746,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="N1" activeCellId="1" sqref="H2 N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="10" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" style="10" customWidth="1"/>
-    <col min="22" max="23" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7" style="4" customWidth="1"/>
-    <col min="36" max="36" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" style="4" customWidth="1"/>
-    <col min="40" max="40" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="7.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="7.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="49.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="10" customWidth="1"/>
+    <col min="17" max="18" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="10" customWidth="1"/>
+    <col min="21" max="22" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" style="4" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" style="4" customWidth="1"/>
+    <col min="39" max="39" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="16" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:62" s="16" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AM1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AO1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AP1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AR1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AS1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AT1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AV1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AW1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AY1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BA1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BB1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BC1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="28" t="s">
+      <c r="BD1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" s="28" t="s">
+      <c r="BE1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BF1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BG1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BI1" s="28" t="s">
+      <c r="BH1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="BJ1" s="24" t="s">
+      <c r="BI1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
-      <c r="A2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="18">
-        <v>42726</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="7">
-        <v>101013451116</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="8">
-        <v>5039860346</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="5">
-        <v>31</v>
-      </c>
-      <c r="P2" s="5">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>7600</v>
-      </c>
-      <c r="W2" s="8">
-        <v>3040</v>
-      </c>
-      <c r="X2" s="8">
-        <v>1600</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>8719</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>500</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="8">
-        <f>SUM(V2:AJ2)</f>
-        <v>21459</v>
-      </c>
-      <c r="AL2" s="8">
-        <f>V2/$O$2*$P$2</f>
-        <v>7600</v>
-      </c>
-      <c r="AM2" s="8">
-        <f t="shared" ref="AM2:AZ2" si="0">W2/$O$2*$P$2</f>
-        <v>3040</v>
-      </c>
-      <c r="AN2" s="8">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="AO2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="8">
-        <f t="shared" si="0"/>
-        <v>8719</v>
-      </c>
-      <c r="AR2" s="8">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AS2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA2" s="9">
-        <f>SUM(AL2:AZ2)</f>
-        <v>21459</v>
-      </c>
-      <c r="BB2" s="2">
-        <f>ROUND(V2*12%,0)</f>
-        <v>912</v>
-      </c>
-      <c r="BC2" s="2">
-        <f>IF(AK2&lt;21001,ROUNDUP(AK2*1.75%,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD2" s="2">
-        <f>IF(AK2&gt;15000,200,0)</f>
-        <v>200</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="8">
-        <f>SUM(BB2:BH2)</f>
-        <v>1112</v>
-      </c>
-      <c r="BJ2" s="8">
-        <f>BA2-BI2</f>
-        <v>20347</v>
-      </c>
-      <c r="BK2" s="27" t="s">
-        <v>72</v>
-      </c>
+    <row r="2" spans="1:62">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>